--- a/tests/testthat/data/df2.xlsx
+++ b/tests/testthat/data/df2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjalocha\Desktop\Mat\Projekty\baseImportance\tests\testthat\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjalocha\Desktop\Mat\baseImportance\tests\testthat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D88127A-AE22-4C17-AE1C-387B0E92E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F980BBD-E422-42B5-85F5-73E846AB4643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AD3697B-B637-4EB9-BCB5-F843D5DD85AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>model_variable</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>MODEL_ID</t>
-  </si>
-  <si>
-    <t>class</t>
   </si>
   <si>
     <t>RF</t>
@@ -449,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852AAF20-98B9-4A98-AC50-CC91FDD63D4A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,11 +457,10 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,280 +473,229 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>102</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>102</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>102</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>102</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>102</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>102</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>102</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>103</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C13">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>103</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>103</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>103</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>103</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
       <c r="C17">
         <v>103</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
